--- a/F15_diametros.xlsx
+++ b/F15_diametros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="diametroNormalComuna" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="283">
-  <si>
-    <t>rangos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="288">
   <si>
     <t>individuos</t>
   </si>
@@ -172,49 +169,49 @@
     <t>45</t>
   </si>
   <si>
-    <t>[0.8,8.25]</t>
-  </si>
-  <si>
-    <t>(8.25,15.7]</t>
-  </si>
-  <si>
-    <t>(15.7,23.2]</t>
-  </si>
-  <si>
-    <t>(23.2,30.6]</t>
-  </si>
-  <si>
-    <t>(30.6,38.1]</t>
-  </si>
-  <si>
-    <t>(38.1,45.5]</t>
-  </si>
-  <si>
-    <t>(45.5,53]</t>
-  </si>
-  <si>
-    <t>(53,60.4]</t>
-  </si>
-  <si>
-    <t>(60.4,67.9]</t>
-  </si>
-  <si>
-    <t>(67.9,75.3]</t>
-  </si>
-  <si>
-    <t>(75.3,82.8]</t>
-  </si>
-  <si>
-    <t>(82.8,90.2]</t>
-  </si>
-  <si>
-    <t>(90.2,97.7]</t>
-  </si>
-  <si>
-    <t>(97.7,105]</t>
-  </si>
-  <si>
-    <t>(105,113]</t>
+    <t>[0.8,10.1]</t>
+  </si>
+  <si>
+    <t>(10.1,19.3]</t>
+  </si>
+  <si>
+    <t>(19.3,28.6]</t>
+  </si>
+  <si>
+    <t>(28.6,37.9]</t>
+  </si>
+  <si>
+    <t>(37.9,47.2]</t>
+  </si>
+  <si>
+    <t>(47.2,56.4]</t>
+  </si>
+  <si>
+    <t>(56.4,65.7]</t>
+  </si>
+  <si>
+    <t>(65.7,75]</t>
+  </si>
+  <si>
+    <t>(75,84.2]</t>
+  </si>
+  <si>
+    <t>(84.2,93.5]</t>
+  </si>
+  <si>
+    <t>(93.5,103]</t>
+  </si>
+  <si>
+    <t>(103,112]</t>
+  </si>
+  <si>
+    <t>(112,121]</t>
+  </si>
+  <si>
+    <t>(121,131]</t>
+  </si>
+  <si>
+    <t>(131,140]</t>
   </si>
   <si>
     <t>Total</t>
@@ -313,6 +310,12 @@
     <t>Orejero</t>
   </si>
   <si>
+    <t>Eucalipto</t>
+  </si>
+  <si>
+    <t>Caracoli</t>
+  </si>
+  <si>
     <t>---</t>
   </si>
   <si>
@@ -352,85 +355,280 @@
     <t>Palma africana</t>
   </si>
   <si>
-    <t>[0.5,7.51]</t>
-  </si>
-  <si>
-    <t>(7.51,14.5]</t>
-  </si>
-  <si>
-    <t>(14.5,21.5]</t>
-  </si>
-  <si>
-    <t>(21.5,28.5]</t>
-  </si>
-  <si>
-    <t>(28.5,35.5]</t>
-  </si>
-  <si>
-    <t>(35.5,42.6]</t>
-  </si>
-  <si>
-    <t>(42.6,49.6]</t>
-  </si>
-  <si>
-    <t>(49.6,56.6]</t>
-  </si>
-  <si>
-    <t>(56.6,63.6]</t>
-  </si>
-  <si>
-    <t>(63.6,70.6]</t>
-  </si>
-  <si>
-    <t>(70.6,77.6]</t>
-  </si>
-  <si>
-    <t>(77.6,84.6]</t>
-  </si>
-  <si>
-    <t>(84.6,91.6]</t>
-  </si>
-  <si>
-    <t>(91.6,98.6]</t>
-  </si>
-  <si>
-    <t>(98.6,106]</t>
-  </si>
-  <si>
-    <t>(106,113]</t>
-  </si>
-  <si>
-    <t>[0.8,8.53]</t>
-  </si>
-  <si>
-    <t>(8.53,16.3]</t>
-  </si>
-  <si>
-    <t>(16.3,24]</t>
-  </si>
-  <si>
-    <t>(24,31.7]</t>
-  </si>
-  <si>
-    <t>(31.7,39.5]</t>
-  </si>
-  <si>
-    <t>(39.5,47.2]</t>
-  </si>
-  <si>
-    <t>(47.2,54.9]</t>
-  </si>
-  <si>
-    <t>(54.9,62.7]</t>
-  </si>
-  <si>
-    <t>(62.7,70.4]</t>
-  </si>
-  <si>
-    <t>(70.4,78.1]</t>
-  </si>
-  <si>
-    <t>(78.1,85.9]</t>
+    <t>[0.1,1.67]</t>
+  </si>
+  <si>
+    <t>(1.67,3.25]</t>
+  </si>
+  <si>
+    <t>(3.25,4.82]</t>
+  </si>
+  <si>
+    <t>(4.82,6.39]</t>
+  </si>
+  <si>
+    <t>(6.39,7.97]</t>
+  </si>
+  <si>
+    <t>(7.97,9.54]</t>
+  </si>
+  <si>
+    <t>(9.54,11.1]</t>
+  </si>
+  <si>
+    <t>(11.1,12.7]</t>
+  </si>
+  <si>
+    <t>(12.7,14.3]</t>
+  </si>
+  <si>
+    <t>(14.3,15.8]</t>
+  </si>
+  <si>
+    <t>(15.8,17.4]</t>
+  </si>
+  <si>
+    <t>(17.4,19]</t>
+  </si>
+  <si>
+    <t>(19,20.6]</t>
+  </si>
+  <si>
+    <t>(20.6,22.1]</t>
+  </si>
+  <si>
+    <t>(22.1,23.7]</t>
+  </si>
+  <si>
+    <t>(23.7,25.3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceiba  </t>
+  </si>
+  <si>
+    <t>Payandé</t>
+  </si>
+  <si>
+    <t>Samán</t>
+  </si>
+  <si>
+    <t>[0.8,10.4]</t>
+  </si>
+  <si>
+    <t>(10.4,20]</t>
+  </si>
+  <si>
+    <t>(20,29.7]</t>
+  </si>
+  <si>
+    <t>(29.7,39.3]</t>
+  </si>
+  <si>
+    <t>(39.3,48.9]</t>
+  </si>
+  <si>
+    <t>(48.9,58.5]</t>
+  </si>
+  <si>
+    <t>(58.5,68.2]</t>
+  </si>
+  <si>
+    <t>(68.2,77.8]</t>
+  </si>
+  <si>
+    <t>(77.8,87.4]</t>
+  </si>
+  <si>
+    <t>(87.4,97]</t>
+  </si>
+  <si>
+    <t>(97,107]</t>
+  </si>
+  <si>
+    <t>(107,116]</t>
+  </si>
+  <si>
+    <t>(116,126]</t>
+  </si>
+  <si>
+    <t>(126,136]</t>
+  </si>
+  <si>
+    <t>(136,145]</t>
+  </si>
+  <si>
+    <t>[0.5,5.09]</t>
+  </si>
+  <si>
+    <t>(5.09,9.69]</t>
+  </si>
+  <si>
+    <t>(9.69,14.3]</t>
+  </si>
+  <si>
+    <t>(14.3,18.9]</t>
+  </si>
+  <si>
+    <t>(18.9,23.5]</t>
+  </si>
+  <si>
+    <t>(23.5,28.1]</t>
+  </si>
+  <si>
+    <t>(28.1,32.6]</t>
+  </si>
+  <si>
+    <t>(32.6,37.2]</t>
+  </si>
+  <si>
+    <t>(37.2,41.8]</t>
+  </si>
+  <si>
+    <t>(41.8,46.4]</t>
+  </si>
+  <si>
+    <t>(46.4,51]</t>
+  </si>
+  <si>
+    <t>(51,55.6]</t>
+  </si>
+  <si>
+    <t>(55.6,60.2]</t>
+  </si>
+  <si>
+    <t>(60.2,64.8]</t>
+  </si>
+  <si>
+    <t>[0.8,5.96]</t>
+  </si>
+  <si>
+    <t>(5.96,11.1]</t>
+  </si>
+  <si>
+    <t>(11.1,16.3]</t>
+  </si>
+  <si>
+    <t>(16.3,21.4]</t>
+  </si>
+  <si>
+    <t>(21.4,26.6]</t>
+  </si>
+  <si>
+    <t>(26.6,31.7]</t>
+  </si>
+  <si>
+    <t>(31.7,36.9]</t>
+  </si>
+  <si>
+    <t>(36.9,42.1]</t>
+  </si>
+  <si>
+    <t>(42.1,47.2]</t>
+  </si>
+  <si>
+    <t>(47.2,52.4]</t>
+  </si>
+  <si>
+    <t>(52.4,57.5]</t>
+  </si>
+  <si>
+    <t>(57.5,62.7]</t>
+  </si>
+  <si>
+    <t>(62.7,67.9]</t>
+  </si>
+  <si>
+    <t>Pera de malaca</t>
+  </si>
+  <si>
+    <t>Gualanday</t>
+  </si>
+  <si>
+    <t>Cachimbo</t>
+  </si>
+  <si>
+    <t>[0.1,1.71]</t>
+  </si>
+  <si>
+    <t>(1.71,3.32]</t>
+  </si>
+  <si>
+    <t>(3.32,4.93]</t>
+  </si>
+  <si>
+    <t>(4.93,6.55]</t>
+  </si>
+  <si>
+    <t>(6.55,8.16]</t>
+  </si>
+  <si>
+    <t>(8.16,9.77]</t>
+  </si>
+  <si>
+    <t>(9.77,11.4]</t>
+  </si>
+  <si>
+    <t>(11.4,13]</t>
+  </si>
+  <si>
+    <t>(13,14.6]</t>
+  </si>
+  <si>
+    <t>(14.6,16.2]</t>
+  </si>
+  <si>
+    <t>(16.2,17.8]</t>
+  </si>
+  <si>
+    <t>(17.8,19.4]</t>
+  </si>
+  <si>
+    <t>(19.4,21]</t>
+  </si>
+  <si>
+    <t>(21,22.7]</t>
+  </si>
+  <si>
+    <t>(22.7,24.3]</t>
+  </si>
+  <si>
+    <t>(24.3,25.9]</t>
+  </si>
+  <si>
+    <t>Acacia Forrajera</t>
+  </si>
+  <si>
+    <t>[1.1,8.81]</t>
+  </si>
+  <si>
+    <t>(8.81,16.5]</t>
+  </si>
+  <si>
+    <t>(16.5,24.2]</t>
+  </si>
+  <si>
+    <t>(24.2,31.9]</t>
+  </si>
+  <si>
+    <t>(31.9,39.7]</t>
+  </si>
+  <si>
+    <t>(39.7,47.4]</t>
+  </si>
+  <si>
+    <t>(47.4,55.1]</t>
+  </si>
+  <si>
+    <t>(55.1,62.8]</t>
+  </si>
+  <si>
+    <t>(62.8,70.5]</t>
+  </si>
+  <si>
+    <t>(70.5,78.2]</t>
+  </si>
+  <si>
+    <t>(78.2,85.9]</t>
   </si>
   <si>
     <t>(85.9,93.6]</t>
@@ -439,189 +637,6 @@
     <t>(93.6,101]</t>
   </si>
   <si>
-    <t>(101,109]</t>
-  </si>
-  <si>
-    <t>(109,117]</t>
-  </si>
-  <si>
-    <t>[0.5,5.09]</t>
-  </si>
-  <si>
-    <t>(5.09,9.69]</t>
-  </si>
-  <si>
-    <t>(9.69,14.3]</t>
-  </si>
-  <si>
-    <t>(14.3,18.9]</t>
-  </si>
-  <si>
-    <t>(18.9,23.5]</t>
-  </si>
-  <si>
-    <t>(23.5,28.1]</t>
-  </si>
-  <si>
-    <t>(28.1,32.6]</t>
-  </si>
-  <si>
-    <t>(32.6,37.2]</t>
-  </si>
-  <si>
-    <t>(37.2,41.8]</t>
-  </si>
-  <si>
-    <t>(41.8,46.4]</t>
-  </si>
-  <si>
-    <t>(46.4,51]</t>
-  </si>
-  <si>
-    <t>(51,55.6]</t>
-  </si>
-  <si>
-    <t>(55.6,60.2]</t>
-  </si>
-  <si>
-    <t>(60.2,64.8]</t>
-  </si>
-  <si>
-    <t>[0.8,5.96]</t>
-  </si>
-  <si>
-    <t>(5.96,11.1]</t>
-  </si>
-  <si>
-    <t>(11.1,16.3]</t>
-  </si>
-  <si>
-    <t>(16.3,21.4]</t>
-  </si>
-  <si>
-    <t>(21.4,26.6]</t>
-  </si>
-  <si>
-    <t>(26.6,31.7]</t>
-  </si>
-  <si>
-    <t>(31.7,36.9]</t>
-  </si>
-  <si>
-    <t>(36.9,42.1]</t>
-  </si>
-  <si>
-    <t>(42.1,47.2]</t>
-  </si>
-  <si>
-    <t>(47.2,52.4]</t>
-  </si>
-  <si>
-    <t>(52.4,57.5]</t>
-  </si>
-  <si>
-    <t>(57.5,62.7]</t>
-  </si>
-  <si>
-    <t>(62.7,67.9]</t>
-  </si>
-  <si>
-    <t>Pera de malaca</t>
-  </si>
-  <si>
-    <t>Gualanday</t>
-  </si>
-  <si>
-    <t>Cachimbo</t>
-  </si>
-  <si>
-    <t>Cedro macho</t>
-  </si>
-  <si>
-    <t>Eucalipto</t>
-  </si>
-  <si>
-    <t>[0.5,7.68]</t>
-  </si>
-  <si>
-    <t>(7.68,14.9]</t>
-  </si>
-  <si>
-    <t>(14.9,22]</t>
-  </si>
-  <si>
-    <t>(22,29.2]</t>
-  </si>
-  <si>
-    <t>(29.2,36.4]</t>
-  </si>
-  <si>
-    <t>(36.4,43.6]</t>
-  </si>
-  <si>
-    <t>(43.6,50.7]</t>
-  </si>
-  <si>
-    <t>(50.7,57.9]</t>
-  </si>
-  <si>
-    <t>(57.9,65.1]</t>
-  </si>
-  <si>
-    <t>(65.1,72.3]</t>
-  </si>
-  <si>
-    <t>(72.3,79.4]</t>
-  </si>
-  <si>
-    <t>(79.4,86.6]</t>
-  </si>
-  <si>
-    <t>(86.6,93.8]</t>
-  </si>
-  <si>
-    <t>(93.8,101]</t>
-  </si>
-  <si>
-    <t>(101,108]</t>
-  </si>
-  <si>
-    <t>(108,115]</t>
-  </si>
-  <si>
-    <t>[1.1,8.81]</t>
-  </si>
-  <si>
-    <t>(8.81,16.5]</t>
-  </si>
-  <si>
-    <t>(16.5,24.2]</t>
-  </si>
-  <si>
-    <t>(24.2,31.9]</t>
-  </si>
-  <si>
-    <t>(31.9,39.7]</t>
-  </si>
-  <si>
-    <t>(39.7,47.4]</t>
-  </si>
-  <si>
-    <t>(47.4,55.1]</t>
-  </si>
-  <si>
-    <t>(55.1,62.8]</t>
-  </si>
-  <si>
-    <t>(62.8,70.5]</t>
-  </si>
-  <si>
-    <t>(70.5,78.2]</t>
-  </si>
-  <si>
-    <t>(78.2,85.9]</t>
-  </si>
-  <si>
     <t>[1.9,5.05]</t>
   </si>
   <si>
@@ -682,76 +697,76 @@
     <t>Eucalipta</t>
   </si>
   <si>
-    <t>[1.1,8.6]</t>
-  </si>
-  <si>
-    <t>(8.6,16.1]</t>
-  </si>
-  <si>
-    <t>(16.1,23.6]</t>
-  </si>
-  <si>
-    <t>(23.6,31.1]</t>
-  </si>
-  <si>
-    <t>(31.1,38.6]</t>
-  </si>
-  <si>
-    <t>(38.6,46.1]</t>
-  </si>
-  <si>
-    <t>(46.1,53.6]</t>
-  </si>
-  <si>
-    <t>(53.6,61.1]</t>
-  </si>
-  <si>
-    <t>(61.1,68.6]</t>
-  </si>
-  <si>
-    <t>(68.6,76.1]</t>
-  </si>
-  <si>
-    <t>(76.1,83.6]</t>
-  </si>
-  <si>
-    <t>(83.6,91.1]</t>
-  </si>
-  <si>
-    <t>(91.1,98.6]</t>
-  </si>
-  <si>
-    <t>[1.3,10.5]</t>
-  </si>
-  <si>
-    <t>(10.5,19.6]</t>
-  </si>
-  <si>
-    <t>(19.6,28.8]</t>
-  </si>
-  <si>
-    <t>(28.8,38]</t>
-  </si>
-  <si>
-    <t>(38,47.2]</t>
-  </si>
-  <si>
-    <t>(47.2,56.3]</t>
-  </si>
-  <si>
-    <t>(56.3,65.5]</t>
-  </si>
-  <si>
-    <t>(65.5,74.7]</t>
-  </si>
-  <si>
-    <t>(74.7,83.8]</t>
-  </si>
-  <si>
-    <t>(83.8,93]</t>
-  </si>
-  <si>
-    <t>(93,102]</t>
+    <t>[0.2,1.61]</t>
+  </si>
+  <si>
+    <t>(1.61,3.03]</t>
+  </si>
+  <si>
+    <t>(3.03,4.44]</t>
+  </si>
+  <si>
+    <t>(4.44,5.85]</t>
+  </si>
+  <si>
+    <t>(5.85,7.27]</t>
+  </si>
+  <si>
+    <t>(7.27,8.68]</t>
+  </si>
+  <si>
+    <t>(8.68,10.1]</t>
+  </si>
+  <si>
+    <t>(10.1,11.5]</t>
+  </si>
+  <si>
+    <t>(11.5,12.9]</t>
+  </si>
+  <si>
+    <t>(12.9,14.3]</t>
+  </si>
+  <si>
+    <t>(15.8,17.2]</t>
+  </si>
+  <si>
+    <t>(17.2,18.6]</t>
+  </si>
+  <si>
+    <t>Guamo machete</t>
+  </si>
+  <si>
+    <t>[1.7,15]</t>
+  </si>
+  <si>
+    <t>(15,28.3]</t>
+  </si>
+  <si>
+    <t>(28.3,41.6]</t>
+  </si>
+  <si>
+    <t>(41.6,54.9]</t>
+  </si>
+  <si>
+    <t>(54.9,68.2]</t>
+  </si>
+  <si>
+    <t>(68.2,81.6]</t>
+  </si>
+  <si>
+    <t>(81.6,94.9]</t>
+  </si>
+  <si>
+    <t>(94.9,108]</t>
+  </si>
+  <si>
+    <t>(108,121]</t>
+  </si>
+  <si>
+    <t>(121,135]</t>
+  </si>
+  <si>
+    <t>(135,148]</t>
   </si>
   <si>
     <t>[0.7,4.18]</t>
@@ -811,19 +826,10 @@
     <t>(46.5,51.5]</t>
   </si>
   <si>
-    <t>Cheflera</t>
-  </si>
-  <si>
     <t>Mango</t>
   </si>
   <si>
-    <t>Ame</t>
-  </si>
-  <si>
-    <t>Caucho matapalo</t>
-  </si>
-  <si>
-    <t>Payandé</t>
+    <t>Tulipan africano</t>
   </si>
   <si>
     <t>Resucitado, flor grande</t>
@@ -832,40 +838,43 @@
     <t>Nolina</t>
   </si>
   <si>
-    <t>[0.7,8.91]</t>
-  </si>
-  <si>
-    <t>(8.91,17.1]</t>
-  </si>
-  <si>
-    <t>(17.1,25.3]</t>
-  </si>
-  <si>
-    <t>(25.3,33.5]</t>
-  </si>
-  <si>
-    <t>(33.5,41.7]</t>
-  </si>
-  <si>
-    <t>(41.7,49.9]</t>
-  </si>
-  <si>
-    <t>(49.9,58.1]</t>
-  </si>
-  <si>
-    <t>(58.1,66.3]</t>
-  </si>
-  <si>
-    <t>(66.3,74.6]</t>
-  </si>
-  <si>
-    <t>(74.6,82.8]</t>
-  </si>
-  <si>
-    <t>(82.8,91]</t>
-  </si>
-  <si>
-    <t>(91,99.2]</t>
+    <t>[0.1,2.26]</t>
+  </si>
+  <si>
+    <t>(2.26,4.41]</t>
+  </si>
+  <si>
+    <t>(4.41,6.57]</t>
+  </si>
+  <si>
+    <t>(6.57,8.72]</t>
+  </si>
+  <si>
+    <t>(8.72,10.9]</t>
+  </si>
+  <si>
+    <t>(10.9,13]</t>
+  </si>
+  <si>
+    <t>(13,15.2]</t>
+  </si>
+  <si>
+    <t>(15.2,17.3]</t>
+  </si>
+  <si>
+    <t>(17.3,19.5]</t>
+  </si>
+  <si>
+    <t>(19.5,21.7]</t>
+  </si>
+  <si>
+    <t>(21.7,23.8]</t>
+  </si>
+  <si>
+    <t>(23.8,26]</t>
+  </si>
+  <si>
+    <t>rangos (m)</t>
   </si>
   <si>
     <t>Arbustos</t>
@@ -875,6 +884,12 @@
   </si>
   <si>
     <t>Árboles</t>
+  </si>
+  <si>
+    <t>rangos (cm)</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
   </si>
 </sst>
 </file>
@@ -1201,629 +1216,629 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
       <c r="N2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>588</v>
+        <v>706</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>773</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>551</v>
+        <v>698</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>285</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4">
         <v>348</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>524</v>
+        <v>564</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O5">
         <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6">
         <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O6">
         <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7">
         <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O8">
         <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+      <c r="J10" t="s">
+        <v>287</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
+      <c r="J11" t="s">
+        <v>287</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O12">
         <v>6</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+      <c r="J13" t="s">
+        <v>287</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13">
         <v>7</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
+      <c r="J14" t="s">
+        <v>287</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="e">
-        <v>#N/A</v>
+      <c r="J15" t="s">
+        <v>287</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16">
         <v>646</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
         <v>62</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
       </c>
       <c r="I17">
         <v>1221</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>2715</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1842,143 +1857,143 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>1689</v>
+        <v>717</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>1010</v>
+        <v>1504</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4">
-        <v>621</v>
+        <v>768</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5">
-        <v>450</v>
+        <v>806</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
@@ -1986,114 +2001,114 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
+      <c r="D16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>4582</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2112,629 +2127,629 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
       <c r="N2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>473</v>
+        <v>565</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I3">
         <v>715</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O3">
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4">
-        <v>447</v>
+        <v>559</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I4">
         <v>266</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O4">
         <v>334</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C5">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I5">
         <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O5">
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C6">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I6">
         <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O6">
         <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C7">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I7">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O7">
         <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I8">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O8">
         <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O9">
         <v>9</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+      <c r="J10" t="s">
+        <v>287</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O10">
         <v>6</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
+      <c r="J11" t="s">
+        <v>287</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O11">
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O12">
         <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+      <c r="J13" t="s">
+        <v>287</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O13">
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
+      <c r="J14" t="s">
+        <v>287</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>287</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16">
         <v>598</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17">
         <v>1130</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>2035</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2747,149 +2762,149 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C2">
-        <v>1524</v>
+        <v>685</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C3">
-        <v>850</v>
+        <v>1264</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>626</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C5">
-        <v>349</v>
+        <v>644</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C6">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C7">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
@@ -2897,114 +2912,114 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
+      <c r="D16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>3763</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3023,481 +3038,481 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
       <c r="N2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I3">
         <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O3">
         <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I4">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O4">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I5">
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C6">
         <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O6">
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C7">
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
         <v>216</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>211</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" t="e">
-        <v>#N/A</v>
+      <c r="P8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C10">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>287</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11">
         <v>48</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>680</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3510,222 +3525,222 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C2">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C4">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>819</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3737,484 +3752,484 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" activeCellId="2" sqref="C14 I12 O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
       <c r="N2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I3">
         <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O3">
         <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I4">
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="O4">
         <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I5">
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="O5">
         <v>14</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O6">
         <v>8</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="O7">
         <v>13</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
+      <c r="J8" t="s">
+        <v>287</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
+      <c r="J9" t="s">
+        <v>287</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="e">
-        <v>#N/A</v>
+      <c r="P9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+      <c r="J10" t="s">
+        <v>287</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="e">
-        <v>#N/A</v>
+      <c r="P10" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13">
         <v>127</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>238</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4226,52 +4241,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
         <v>268</v>
-      </c>
-      <c r="C2">
-        <v>190</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>103</v>
@@ -4279,156 +4294,156 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>471</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
